--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -851,7 +851,7 @@
 </t>
   </si>
   <si>
-    <t>Profession</t>
+    <t>TDDUI Profession</t>
   </si>
   <si>
     <t>Extension permettant de représenter la profession du professionnel.</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1470,17 +1470,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.20703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1489,27 +1489,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="73.27734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="67.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="166.7265625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="78.58203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="194.47265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1470,17 +1470,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.20703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1489,27 +1489,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1470,17 +1470,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.20703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1489,27 +1489,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="73.27734375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="67.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="166.7265625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="78.58203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="194.47265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1470,17 +1470,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.20703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.9140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1489,27 +1489,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>PractitionerRole.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>serviceTypeDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration|2.1.0}
 </t>
   </si>
   <si>
@@ -656,7 +656,7 @@
     <t>TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -775,7 +775,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice|2.1.0</t>
   </si>
   <si>
     <t>rôle</t>
@@ -847,7 +847,7 @@
     <t>PractitionerRole.code.extension:TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS|20250523120000</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -923,7 +923,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.1.0</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -938,7 +938,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.1.0)
 </t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.73828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1495,7 +1495,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.12890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>PractitionerRole.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>serviceTypeDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
 </t>
   </si>
   <si>
@@ -656,7 +656,7 @@
     <t>TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode}
 </t>
   </si>
   <si>
@@ -775,7 +775,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
   </si>
   <si>
     <t>rôle</t>
@@ -847,7 +847,7 @@
     <t>PractitionerRole.code.extension:TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession}
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS|20250523120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -923,7 +923,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -938,7 +938,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service)
 </t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint|4.0.1)
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.73828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1495,7 +1495,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="89.12890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -442,7 +442,7 @@
     <t>PractitionerRole.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -560,7 +560,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -636,7 +636,7 @@
     <t>serviceTypeDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration|2.1.0}
 </t>
   </si>
   <si>
@@ -656,7 +656,7 @@
     <t>TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-exercise-mode|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -775,7 +775,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -791,7 +791,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -826,7 +826,7 @@
     <t>Need to know what authority the practitioner has - what can they do?</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice|2.1.0</t>
   </si>
   <si>
     <t>rôle</t>
@@ -847,7 +847,7 @@
     <t>PractitionerRole.code.extension:TDDUIProfession</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-profession|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS|20250523120000</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -923,7 +923,7 @@
     <t>Specific specialty of the practitioner.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.1.0</t>
   </si>
   <si>
     <t>PRA-5</t>
@@ -938,7 +938,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.1.0)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.1.0)
 </t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>PractitionerRole.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
     <t>PractitionerRole.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.2265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.73828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1495,7 +1495,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.12890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
+++ b/main/ig/StructureDefinition-tddui-practitioner-role.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
